--- a/Analysis/FinalExperimentLog.xlsx
+++ b/Analysis/FinalExperimentLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Academics\UCT - MIT\Research\Code\KeepawaySim\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DFF149-3B2E-44C8-8869-99F7BE931402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27B8B7-59EE-4D76-A35E-6E200591348D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,9 +688,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -863,6 +863,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,25 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F886CF28-BEBC-49A9-A144-6F0DB4D6A750}">
   <dimension ref="A1:X174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="T178" sqref="T178"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,8 +1239,8 @@
     <col min="18" max="18" width="15.42578125" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" style="15" customWidth="1"/>
-    <col min="22" max="24" width="15.42578125" style="19" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="12" customWidth="1"/>
+    <col min="22" max="24" width="15.42578125" style="16" customWidth="1"/>
     <col min="25" max="35" width="15.42578125" style="3" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1303,16 +1303,16 @@
       <c r="T1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="15" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1403,19 +1403,19 @@
       <c r="S3" s="7">
         <v>44206.78125</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="8">
         <f>S3-S2</f>
         <v>0.79930555555620231</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="12">
         <f>DAY(T3)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="16">
         <f>HOUR(T3)</f>
         <v>19</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="16">
         <f>MINUTE(T3)</f>
         <v>11</v>
       </c>
@@ -1463,19 +1463,19 @@
       <c r="S4" s="7">
         <v>44207.420138888891</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8">
         <f t="shared" ref="T4:T67" si="0">S4-S3</f>
         <v>0.63888888889050577</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="12">
         <f t="shared" ref="U4:U67" si="1">DAY(T4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="16">
         <f>HOUR(T4)</f>
         <v>15</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="16">
         <f>MINUTE(T4)</f>
         <v>20</v>
       </c>
@@ -1523,59 +1523,59 @@
       <c r="S5" s="7">
         <v>44208.050694444442</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="8">
         <f t="shared" si="0"/>
         <v>0.63055555555183673</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="16">
         <f>HOUR(T5)</f>
         <v>15</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="16">
         <f>MINUTE(T5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="20">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="17">
         <f>AVERAGE(U3:U5)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="17">
         <f>AVERAGE(V3:V5)</f>
         <v>16.333333333333332</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="17">
         <f>AVERAGE(W3:W5)</f>
         <v>13</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="17">
         <f>V6+24*U6</f>
         <v>16.333333333333332</v>
       </c>
@@ -1627,14 +1627,14 @@
       <c r="S7" s="7">
         <v>44220.783333333333</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="8">
         <f>S7-S5</f>
         <v>12.732638888890506</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22" t="s">
+      <c r="U7" s="18"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1685,20 +1685,20 @@
       <c r="S8" s="7">
         <v>44221.80972222222</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="8">
         <f t="shared" si="0"/>
         <v>1.0263888888875954</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V8" s="19">
-        <f>HOUR(T8)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="19">
-        <f>MINUTE(T8)</f>
+      <c r="V8" s="16">
+        <f t="shared" ref="V8:V16" si="2">HOUR(T8)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" ref="W8:W16" si="3">MINUTE(T8)</f>
         <v>38</v>
       </c>
     </row>
@@ -1749,20 +1749,20 @@
       <c r="S9" s="7">
         <v>44222.9</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="8">
         <f t="shared" si="0"/>
         <v>1.0902777777810115</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V9" s="19">
-        <f>HOUR(T9)</f>
+      <c r="V9" s="16">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W9" s="19">
-        <f>MINUTE(T9)</f>
+      <c r="W9" s="16">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -1813,20 +1813,20 @@
       <c r="S10" s="7">
         <v>44223.947222222225</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="8">
         <f t="shared" si="0"/>
         <v>1.047222222223354</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V10" s="19">
-        <f>HOUR(T10)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="19">
-        <f>MINUTE(T10)</f>
+      <c r="V10" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1877,20 +1877,20 @@
       <c r="S11" s="7">
         <v>44224.990972222222</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="8">
         <f t="shared" si="0"/>
         <v>1.0437499999970896</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V11" s="19">
-        <f>HOUR(T11)</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="19">
-        <f>MINUTE(T11)</f>
+      <c r="V11" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1941,20 +1941,20 @@
       <c r="S12" s="7">
         <v>44225.947916666664</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="8">
         <f t="shared" si="0"/>
         <v>0.9569444444423425</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="19">
-        <f>HOUR(T12)</f>
+      <c r="V12" s="16">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="W12" s="19">
-        <f>MINUTE(T12)</f>
+      <c r="W12" s="16">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -2005,20 +2005,20 @@
       <c r="S13" s="7">
         <v>44227.01458333333</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <f t="shared" si="0"/>
         <v>1.0666666666656965</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V13" s="19">
-        <f>HOUR(T13)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="19">
-        <f>MINUTE(T13)</f>
+      <c r="V13" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
@@ -2069,20 +2069,20 @@
       <c r="S14" s="7">
         <v>44228.350694444445</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <f t="shared" si="0"/>
         <v>1.336111111115315</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V14" s="19">
-        <f>HOUR(T14)</f>
+      <c r="V14" s="16">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="W14" s="19">
-        <f>MINUTE(T14)</f>
+      <c r="W14" s="16">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2133,20 +2133,20 @@
       <c r="S15" s="7">
         <v>44229.844444444447</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <f t="shared" si="0"/>
         <v>1.4937500000014552</v>
       </c>
-      <c r="U15" s="15">
+      <c r="U15" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V15" s="19">
-        <f>HOUR(T15)</f>
+      <c r="V15" s="16">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="W15" s="19">
-        <f>MINUTE(T15)</f>
+      <c r="W15" s="16">
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -2197,20 +2197,20 @@
       <c r="S16" s="7">
         <v>44230.539583333331</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <f t="shared" si="0"/>
         <v>0.695138888884685</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V16" s="19">
-        <f>HOUR(T16)</f>
+      <c r="V16" s="16">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="W16" s="19">
-        <f>MINUTE(T16)</f>
+      <c r="W16" s="16">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -2232,22 +2232,22 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="20">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="17">
         <f>AVERAGE(U7:U16)</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="V17" s="20">
-        <f t="shared" ref="V17:W17" si="2">AVERAGE(V7:V16)</f>
+      <c r="V17" s="17">
+        <f t="shared" ref="V17:W17" si="4">AVERAGE(V7:V16)</f>
         <v>6.8888888888888893</v>
       </c>
-      <c r="W17" s="20">
-        <f t="shared" si="2"/>
+      <c r="W17" s="17">
+        <f t="shared" si="4"/>
         <v>27.666666666666668</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="17">
         <f>V17+24*U17</f>
         <v>25.555555555555557</v>
       </c>
@@ -2299,20 +2299,20 @@
       <c r="S18" s="7">
         <v>44231.460416666669</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <f>S18-S16</f>
         <v>0.92083333333721384</v>
       </c>
-      <c r="U18" s="15">
+      <c r="U18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="19">
-        <f>HOUR(T18)</f>
+      <c r="V18" s="16">
+        <f t="shared" ref="V18:V27" si="5">HOUR(T18)</f>
         <v>22</v>
       </c>
-      <c r="W18" s="19">
-        <f>MINUTE(T18)</f>
+      <c r="W18" s="16">
+        <f t="shared" ref="W18:W27" si="6">MINUTE(T18)</f>
         <v>6</v>
       </c>
     </row>
@@ -2363,20 +2363,20 @@
       <c r="S19" s="7">
         <v>44232.625</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <f t="shared" si="0"/>
         <v>1.1645833333313931</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V19" s="19">
-        <f>HOUR(T19)</f>
+      <c r="V19" s="16">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="W19" s="19">
-        <f>MINUTE(T19)</f>
+      <c r="W19" s="16">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
     </row>
@@ -2427,20 +2427,20 @@
       <c r="S20" s="7">
         <v>44233.697916666664</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <f t="shared" si="0"/>
         <v>1.0729166666642413</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V20" s="19">
-        <f>HOUR(T20)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="19">
-        <f>MINUTE(T20)</f>
+      <c r="V20" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -2491,20 +2491,20 @@
       <c r="S21" s="7">
         <v>44234.656944444447</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <f t="shared" si="0"/>
         <v>0.95902777778246673</v>
       </c>
-      <c r="U21" s="15">
+      <c r="U21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V21" s="19">
-        <f>HOUR(T21)</f>
+      <c r="V21" s="16">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="W21" s="19">
-        <f>MINUTE(T21)</f>
+      <c r="W21" s="16">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2555,20 +2555,20 @@
       <c r="S22" s="7">
         <v>44235.434027777781</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <f t="shared" si="0"/>
         <v>0.77708333333430346</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V22" s="19">
-        <f>HOUR(T22)</f>
+      <c r="V22" s="16">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="W22" s="19">
-        <f>MINUTE(T22)</f>
+      <c r="W22" s="16">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
@@ -2619,20 +2619,20 @@
       <c r="S23" s="7">
         <v>44240.822916666664</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <f t="shared" si="0"/>
         <v>5.3888888888832298</v>
       </c>
-      <c r="U23" s="15">
+      <c r="U23" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V23" s="19">
-        <f>HOUR(T23)</f>
+      <c r="V23" s="16">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="W23" s="19">
-        <f>MINUTE(T23)</f>
+      <c r="W23" s="16">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2683,20 +2683,20 @@
       <c r="S24" s="7">
         <v>44241.888194444444</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="8">
         <f t="shared" si="0"/>
         <v>1.0652777777795563</v>
       </c>
-      <c r="U24" s="15">
+      <c r="U24" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V24" s="19">
-        <f>HOUR(T24)</f>
-        <v>1</v>
-      </c>
-      <c r="W24" s="19">
-        <f>MINUTE(T24)</f>
+      <c r="V24" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
     </row>
@@ -2747,20 +2747,20 @@
       <c r="S25" s="7">
         <v>44242.918749999997</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="8">
         <f t="shared" si="0"/>
         <v>1.0305555555532919</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V25" s="19">
-        <f>HOUR(T25)</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="19">
-        <f>MINUTE(T25)</f>
+      <c r="V25" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
@@ -2811,20 +2811,20 @@
       <c r="S26" s="7">
         <v>44243.840277777781</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <f t="shared" si="0"/>
         <v>0.92152777778392192</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V26" s="19">
-        <f>HOUR(T26)</f>
+      <c r="V26" s="16">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="W26" s="19">
-        <f>MINUTE(T26)</f>
+      <c r="W26" s="16">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -2875,20 +2875,20 @@
       <c r="S27" s="7">
         <v>44247.017361111109</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="8">
         <f t="shared" si="0"/>
         <v>3.1770833333284827</v>
       </c>
-      <c r="U27" s="15">
+      <c r="U27" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V27" s="19">
-        <f>HOUR(T27)</f>
+      <c r="V27" s="16">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="W27" s="19">
-        <f>MINUTE(T27)</f>
+      <c r="W27" s="16">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="20">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="17">
         <f>AVERAGE(U18:U27)</f>
         <v>1.2</v>
       </c>
-      <c r="V28" s="20">
-        <f t="shared" ref="V28" si="3">AVERAGE(V18:V27)</f>
+      <c r="V28" s="17">
+        <f t="shared" ref="V28" si="7">AVERAGE(V18:V27)</f>
         <v>10.3</v>
       </c>
-      <c r="W28" s="20">
-        <f t="shared" ref="W28" si="4">AVERAGE(W18:W27)</f>
+      <c r="W28" s="17">
+        <f t="shared" ref="W28" si="8">AVERAGE(W18:W27)</f>
         <v>26.8</v>
       </c>
-      <c r="X28" s="20">
+      <c r="X28" s="17">
         <f>V28+24*U28</f>
         <v>39.099999999999994</v>
       </c>
@@ -2977,20 +2977,20 @@
       <c r="S29" s="7">
         <v>44247.975694444445</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="8">
         <f>S29-S27</f>
         <v>0.95833333333575865</v>
       </c>
-      <c r="U29" s="15">
+      <c r="U29" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V29" s="19">
-        <f>HOUR(T29)</f>
+      <c r="V29" s="16">
+        <f t="shared" ref="V29:V40" si="9">HOUR(T29)</f>
         <v>23</v>
       </c>
-      <c r="W29" s="19">
-        <f>MINUTE(T29)</f>
+      <c r="W29" s="16">
+        <f t="shared" ref="W29:W38" si="10">MINUTE(T29)</f>
         <v>0</v>
       </c>
     </row>
@@ -3041,20 +3041,20 @@
       <c r="S30" s="7">
         <v>44248.755555555559</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="8">
         <f t="shared" si="0"/>
         <v>0.77986111111385981</v>
       </c>
-      <c r="U30" s="15">
+      <c r="U30" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V30" s="19">
-        <f>HOUR(T30)</f>
+      <c r="V30" s="16">
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="W30" s="19">
-        <f>MINUTE(T30)</f>
+      <c r="W30" s="16">
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
     </row>
@@ -3105,20 +3105,20 @@
       <c r="S31" s="7">
         <v>44249.439583333333</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="8">
         <f t="shared" si="0"/>
         <v>0.68402777777373558</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V31" s="19">
-        <f>HOUR(T31)</f>
+      <c r="V31" s="16">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="W31" s="19">
-        <f>MINUTE(T31)</f>
+      <c r="W31" s="16">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
@@ -3169,20 +3169,20 @@
       <c r="S32" s="7">
         <v>44251.950694444444</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="8">
         <f t="shared" si="0"/>
         <v>2.5111111111109494</v>
       </c>
-      <c r="U32" s="15">
+      <c r="U32" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V32" s="19">
-        <f>HOUR(T32)</f>
+      <c r="V32" s="16">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="W32" s="19">
-        <f>MINUTE(T32)</f>
+      <c r="W32" s="16">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
@@ -3233,20 +3233,20 @@
       <c r="S33" s="7">
         <v>44252.82916666667</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="8">
         <f t="shared" si="0"/>
         <v>0.87847222222626442</v>
       </c>
-      <c r="U33" s="15">
+      <c r="U33" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V33" s="19">
-        <f>HOUR(T33)</f>
+      <c r="V33" s="16">
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="W33" s="19">
-        <f>MINUTE(T33)</f>
+      <c r="W33" s="16">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -3297,20 +3297,20 @@
       <c r="S34" s="7">
         <v>44253.958333333336</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="8">
         <f t="shared" si="0"/>
         <v>1.1291666666656965</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U34" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V34" s="19">
-        <f>HOUR(T34)</f>
+      <c r="V34" s="16">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="W34" s="19">
-        <f>MINUTE(T34)</f>
+      <c r="W34" s="16">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -3361,20 +3361,20 @@
       <c r="S35" s="7">
         <v>44254.776388888888</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="8">
         <f t="shared" si="0"/>
         <v>0.81805555555183673</v>
       </c>
-      <c r="U35" s="15">
+      <c r="U35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V35" s="19">
-        <f>HOUR(T35)</f>
+      <c r="V35" s="16">
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="W35" s="19">
-        <f>MINUTE(T35)</f>
+      <c r="W35" s="16">
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
     </row>
@@ -3425,20 +3425,20 @@
       <c r="S36" s="7">
         <v>44255.876388888886</v>
       </c>
-      <c r="T36" s="11">
+      <c r="T36" s="8">
         <f t="shared" si="0"/>
         <v>1.0999999999985448</v>
       </c>
-      <c r="U36" s="15">
+      <c r="U36" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V36" s="19">
-        <f>HOUR(T36)</f>
+      <c r="V36" s="16">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="W36" s="19">
-        <f>MINUTE(T36)</f>
+      <c r="W36" s="16">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
@@ -3489,20 +3489,20 @@
       <c r="S37" s="7">
         <v>44256.707638888889</v>
       </c>
-      <c r="T37" s="11">
+      <c r="T37" s="8">
         <f t="shared" si="0"/>
         <v>0.83125000000291038</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V37" s="19">
-        <f>HOUR(T37)</f>
+      <c r="V37" s="16">
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="W37" s="19">
-        <f>MINUTE(T37)</f>
+      <c r="W37" s="16">
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
     </row>
@@ -3553,20 +3553,20 @@
       <c r="S38" s="7">
         <v>44257.829861111109</v>
       </c>
-      <c r="T38" s="11">
+      <c r="T38" s="8">
         <f t="shared" si="0"/>
         <v>1.1222222222204437</v>
       </c>
-      <c r="U38" s="15">
+      <c r="U38" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V38" s="19">
-        <f>HOUR(T38)</f>
+      <c r="V38" s="16">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="W38" s="19">
-        <f>MINUTE(T38)</f>
+      <c r="W38" s="16">
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
     </row>
@@ -3614,23 +3614,23 @@
         <v>0.1</v>
       </c>
       <c r="Q39" s="4"/>
-      <c r="S39" s="12">
+      <c r="S39" s="9">
         <v>44259.09652777778</v>
       </c>
-      <c r="T39" s="11">
+      <c r="T39" s="8">
         <f t="shared" si="0"/>
         <v>1.2666666666700621</v>
       </c>
-      <c r="U39" s="15">
+      <c r="U39" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V39" s="19">
-        <f>HOUR(T39)</f>
+      <c r="V39" s="16">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="W39" s="19">
-        <f t="shared" ref="W39:W40" si="5">MINUTE(T39)</f>
+      <c r="W39" s="16">
+        <f t="shared" ref="W39:W40" si="11">MINUTE(T39)</f>
         <v>24</v>
       </c>
     </row>
@@ -3678,60 +3678,60 @@
         <v>0.1</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="S40" s="12">
+      <c r="S40" s="9">
         <v>44260.385416666664</v>
       </c>
-      <c r="T40" s="11">
+      <c r="T40" s="8">
         <f t="shared" si="0"/>
         <v>1.288888888884685</v>
       </c>
-      <c r="U40" s="15">
+      <c r="U40" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V40" s="19">
-        <f>HOUR(T40)</f>
+      <c r="V40" s="16">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="W40" s="19">
-        <f t="shared" si="5"/>
+      <c r="W40" s="16">
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="20">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="17">
         <f>AVERAGE(U31:U40)</f>
         <v>0.7</v>
       </c>
-      <c r="V41" s="20">
-        <f t="shared" ref="V41" si="6">AVERAGE(V31:V40)</f>
+      <c r="V41" s="17">
+        <f t="shared" ref="V41" si="12">AVERAGE(V31:V40)</f>
         <v>10.6</v>
       </c>
-      <c r="W41" s="20">
-        <f t="shared" ref="W41" si="7">AVERAGE(W31:W40)</f>
+      <c r="W41" s="17">
+        <f t="shared" ref="W41" si="13">AVERAGE(W31:W40)</f>
         <v>30.7</v>
       </c>
-      <c r="X41" s="20">
+      <c r="X41" s="17">
         <f>V41+24*U41</f>
         <v>27.4</v>
       </c>
@@ -3779,19 +3779,19 @@
       </c>
       <c r="Q42" s="4"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="11">
+      <c r="T42" s="8">
         <f>S42-S40</f>
         <v>-44260.385416666664</v>
       </c>
-      <c r="U42" s="15" t="e">
+      <c r="U42" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="V42" s="19" t="e">
+      <c r="V42" s="16" t="e">
         <f>HOUR(T42)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W42" s="19" t="e">
+      <c r="W42" s="16" t="e">
         <f>MINUTE(T42)</f>
         <v>#NUM!</v>
       </c>
@@ -3839,20 +3839,20 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="11">
+      <c r="T43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U43" s="15">
+      <c r="U43" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V43" s="19">
-        <f t="shared" ref="V43:V106" si="8">HOUR(T43)</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="19">
-        <f t="shared" ref="W43:W106" si="9">MINUTE(T43)</f>
+      <c r="V43" s="16">
+        <f t="shared" ref="V43:V106" si="14">HOUR(T43)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="16">
+        <f t="shared" ref="W43:W106" si="15">MINUTE(T43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3899,20 +3899,20 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="11">
+      <c r="T44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U44" s="15">
+      <c r="U44" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V44" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="19">
-        <f t="shared" si="9"/>
+      <c r="V44" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3959,20 +3959,20 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="11">
+      <c r="T45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U45" s="15">
+      <c r="U45" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V45" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="19">
-        <f t="shared" si="9"/>
+      <c r="V45" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4019,20 +4019,20 @@
       </c>
       <c r="Q46" s="4"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="11">
+      <c r="T46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U46" s="15">
+      <c r="U46" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V46" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="19">
-        <f t="shared" si="9"/>
+      <c r="V46" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4079,20 +4079,20 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="11">
+      <c r="T47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U47" s="15">
+      <c r="U47" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V47" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="19">
-        <f t="shared" si="9"/>
+      <c r="V47" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4139,20 +4139,20 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="11">
+      <c r="T48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U48" s="15">
+      <c r="U48" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V48" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="19">
-        <f t="shared" si="9"/>
+      <c r="V48" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4199,20 +4199,20 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="11">
+      <c r="T49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U49" s="15">
+      <c r="U49" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V49" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="19">
-        <f t="shared" si="9"/>
+      <c r="V49" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4259,20 +4259,20 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="11">
+      <c r="T50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U50" s="15">
+      <c r="U50" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V50" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="19">
-        <f t="shared" si="9"/>
+      <c r="V50" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4319,20 +4319,20 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="11">
+      <c r="T51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U51" s="15">
+      <c r="U51" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V51" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="19">
-        <f t="shared" si="9"/>
+      <c r="V51" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4354,22 +4354,22 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="20" t="e">
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="17" t="e">
         <f>AVERAGE(U42:U51)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V52" s="20" t="e">
-        <f t="shared" ref="V52" si="10">AVERAGE(V42:V51)</f>
+      <c r="V52" s="17" t="e">
+        <f t="shared" ref="V52" si="16">AVERAGE(V42:V51)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W52" s="20" t="e">
-        <f t="shared" ref="W52" si="11">AVERAGE(W42:W51)</f>
+      <c r="W52" s="17" t="e">
+        <f t="shared" ref="W52" si="17">AVERAGE(W42:W51)</f>
         <v>#NUM!</v>
       </c>
-      <c r="X52" s="20" t="e">
+      <c r="X52" s="17" t="e">
         <f>V52+24*U52</f>
         <v>#NUM!</v>
       </c>
@@ -4417,20 +4417,20 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="11">
+      <c r="T53" s="8">
         <f>S53-S51</f>
         <v>0</v>
       </c>
-      <c r="U53" s="15">
+      <c r="U53" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V53" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="19">
-        <f t="shared" si="9"/>
+      <c r="V53" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4477,20 +4477,20 @@
       </c>
       <c r="Q54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="11">
+      <c r="T54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U54" s="15">
+      <c r="U54" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V54" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="19">
-        <f t="shared" si="9"/>
+      <c r="V54" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4537,20 +4537,20 @@
       </c>
       <c r="Q55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="11">
+      <c r="T55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U55" s="15">
+      <c r="U55" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V55" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="19">
-        <f t="shared" si="9"/>
+      <c r="V55" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4597,20 +4597,20 @@
       </c>
       <c r="Q56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="11">
+      <c r="T56" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U56" s="15">
+      <c r="U56" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V56" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="19">
-        <f t="shared" si="9"/>
+      <c r="V56" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4657,20 +4657,20 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="11">
+      <c r="T57" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U57" s="15">
+      <c r="U57" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V57" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="19">
-        <f t="shared" si="9"/>
+      <c r="V57" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4717,20 +4717,20 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="11">
+      <c r="T58" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U58" s="15">
+      <c r="U58" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V58" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="19">
-        <f t="shared" si="9"/>
+      <c r="V58" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4777,20 +4777,20 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="11">
+      <c r="T59" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U59" s="15">
+      <c r="U59" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V59" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="19">
-        <f t="shared" si="9"/>
+      <c r="V59" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4837,20 +4837,20 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="11">
+      <c r="T60" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U60" s="15">
+      <c r="U60" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V60" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="19">
-        <f t="shared" si="9"/>
+      <c r="V60" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4897,20 +4897,20 @@
       </c>
       <c r="Q61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="11">
+      <c r="T61" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U61" s="15">
+      <c r="U61" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V61" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="19">
-        <f t="shared" si="9"/>
+      <c r="V61" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4957,20 +4957,20 @@
       </c>
       <c r="Q62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="11">
+      <c r="T62" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U62" s="15">
+      <c r="U62" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V62" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="19">
-        <f t="shared" si="9"/>
+      <c r="V62" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4992,22 +4992,22 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="20">
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="17">
         <f>AVERAGE(U53:U62)</f>
         <v>0</v>
       </c>
-      <c r="V63" s="20">
-        <f t="shared" ref="V63" si="12">AVERAGE(V53:V62)</f>
-        <v>0</v>
-      </c>
-      <c r="W63" s="20">
-        <f t="shared" ref="W63" si="13">AVERAGE(W53:W62)</f>
-        <v>0</v>
-      </c>
-      <c r="X63" s="20">
+      <c r="V63" s="17">
+        <f t="shared" ref="V63" si="18">AVERAGE(V53:V62)</f>
+        <v>0</v>
+      </c>
+      <c r="W63" s="17">
+        <f t="shared" ref="W63" si="19">AVERAGE(W53:W62)</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="17">
         <f>V63+24*U63</f>
         <v>0</v>
       </c>
@@ -5055,20 +5055,20 @@
       </c>
       <c r="Q64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="11">
+      <c r="T64" s="8">
         <f>S64-S62</f>
         <v>0</v>
       </c>
-      <c r="U64" s="15">
+      <c r="U64" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V64" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="19">
-        <f t="shared" si="9"/>
+      <c r="V64" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5115,20 +5115,20 @@
       </c>
       <c r="Q65" s="4"/>
       <c r="S65" s="4"/>
-      <c r="T65" s="11">
+      <c r="T65" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U65" s="15">
+      <c r="U65" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V65" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="19">
-        <f t="shared" si="9"/>
+      <c r="V65" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5175,20 +5175,20 @@
       </c>
       <c r="Q66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="11">
+      <c r="T66" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U66" s="15">
+      <c r="U66" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V66" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="19">
-        <f t="shared" si="9"/>
+      <c r="V66" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5235,20 +5235,20 @@
       </c>
       <c r="Q67" s="4"/>
       <c r="S67" s="4"/>
-      <c r="T67" s="11">
+      <c r="T67" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U67" s="15">
+      <c r="U67" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V67" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="19">
-        <f t="shared" si="9"/>
+      <c r="V67" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5295,20 +5295,20 @@
       </c>
       <c r="Q68" s="4"/>
       <c r="S68" s="4"/>
-      <c r="T68" s="11">
-        <f t="shared" ref="T68:T131" si="14">S68-S67</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="15">
-        <f t="shared" ref="U68:U131" si="15">DAY(T68)</f>
-        <v>0</v>
-      </c>
-      <c r="V68" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="19">
-        <f t="shared" si="9"/>
+      <c r="T68" s="8">
+        <f t="shared" ref="T68:T131" si="20">S68-S67</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="12">
+        <f t="shared" ref="U68:U131" si="21">DAY(T68)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -5355,20 +5355,20 @@
       </c>
       <c r="Q69" s="4"/>
       <c r="S69" s="4"/>
-      <c r="T69" s="11">
+      <c r="T69" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U69" s="15">
+      <c r="W69" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5415,20 +5415,20 @@
       </c>
       <c r="Q70" s="4"/>
       <c r="S70" s="4"/>
-      <c r="T70" s="11">
+      <c r="T70" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V70" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U70" s="15">
+      <c r="W70" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V70" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W70" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5475,20 +5475,20 @@
       </c>
       <c r="Q71" s="4"/>
       <c r="S71" s="4"/>
-      <c r="T71" s="11">
+      <c r="T71" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U71" s="15">
+      <c r="W71" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V71" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5535,20 +5535,20 @@
       </c>
       <c r="Q72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="11">
+      <c r="T72" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U72" s="15">
+      <c r="W72" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V72" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W72" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5595,20 +5595,20 @@
       </c>
       <c r="Q73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="11">
+      <c r="T73" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U73" s="15">
+      <c r="W73" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5630,22 +5630,22 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="20">
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="17">
         <f>AVERAGE(U64:U73)</f>
         <v>0</v>
       </c>
-      <c r="V74" s="20">
-        <f t="shared" ref="V74" si="16">AVERAGE(V64:V73)</f>
-        <v>0</v>
-      </c>
-      <c r="W74" s="20">
-        <f t="shared" ref="W74" si="17">AVERAGE(W64:W73)</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="20">
+      <c r="V74" s="17">
+        <f t="shared" ref="V74" si="22">AVERAGE(V64:V73)</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="17">
+        <f t="shared" ref="W74" si="23">AVERAGE(W64:W73)</f>
+        <v>0</v>
+      </c>
+      <c r="X74" s="17">
         <f>V74+24*U74</f>
         <v>0</v>
       </c>
@@ -5693,20 +5693,20 @@
       </c>
       <c r="Q75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="11">
+      <c r="T75" s="8">
         <f>S75-S73</f>
         <v>0</v>
       </c>
-      <c r="U75" s="15">
+      <c r="U75" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="Q76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="11">
+      <c r="T76" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U76" s="15">
+      <c r="W76" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5813,20 +5813,20 @@
       </c>
       <c r="Q77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="11">
+      <c r="T77" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U77" s="15">
+      <c r="W77" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5873,20 +5873,20 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="11">
+      <c r="T78" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U78" s="15">
+      <c r="W78" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W78" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5933,20 +5933,20 @@
       </c>
       <c r="Q79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="11">
+      <c r="T79" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U79" s="15">
+      <c r="W79" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V79" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5993,20 +5993,20 @@
       </c>
       <c r="Q80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="11">
+      <c r="T80" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U80" s="15">
+      <c r="W80" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6053,20 +6053,20 @@
       </c>
       <c r="Q81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="11">
+      <c r="T81" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U81" s="15">
+      <c r="W81" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V81" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W81" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="Q82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="11">
+      <c r="T82" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U82" s="15">
+      <c r="W82" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6173,20 +6173,20 @@
       </c>
       <c r="Q83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="11">
+      <c r="T83" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U83" s="15">
+      <c r="W83" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W83" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6233,20 +6233,20 @@
       </c>
       <c r="Q84" s="4"/>
       <c r="S84" s="4"/>
-      <c r="T84" s="11">
+      <c r="T84" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U84" s="15">
+      <c r="W84" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W84" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6268,22 +6268,22 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="20">
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="17">
         <f>AVERAGE(U75:U84)</f>
         <v>0</v>
       </c>
-      <c r="V85" s="20">
-        <f t="shared" ref="V85" si="18">AVERAGE(V75:V84)</f>
-        <v>0</v>
-      </c>
-      <c r="W85" s="20">
-        <f t="shared" ref="W85" si="19">AVERAGE(W75:W84)</f>
-        <v>0</v>
-      </c>
-      <c r="X85" s="20">
+      <c r="V85" s="17">
+        <f t="shared" ref="V85" si="24">AVERAGE(V75:V84)</f>
+        <v>0</v>
+      </c>
+      <c r="W85" s="17">
+        <f t="shared" ref="W85" si="25">AVERAGE(W75:W84)</f>
+        <v>0</v>
+      </c>
+      <c r="X85" s="17">
         <f>V85+24*U85</f>
         <v>0</v>
       </c>
@@ -6331,20 +6331,20 @@
       </c>
       <c r="Q86" s="4"/>
       <c r="S86" s="4"/>
-      <c r="T86" s="11">
+      <c r="T86" s="8">
         <f>S86-S84</f>
         <v>0</v>
       </c>
-      <c r="U86" s="15">
+      <c r="U86" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W86" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6391,20 +6391,20 @@
       </c>
       <c r="Q87" s="4"/>
       <c r="S87" s="4"/>
-      <c r="T87" s="11">
+      <c r="T87" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U87" s="15">
+      <c r="W87" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6451,20 +6451,20 @@
       </c>
       <c r="Q88" s="4"/>
       <c r="S88" s="4"/>
-      <c r="T88" s="11">
+      <c r="T88" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U88" s="15">
+      <c r="W88" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6511,20 +6511,20 @@
       </c>
       <c r="Q89" s="4"/>
       <c r="S89" s="4"/>
-      <c r="T89" s="11">
+      <c r="T89" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U89" s="15">
+      <c r="W89" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6571,20 +6571,20 @@
       </c>
       <c r="Q90" s="4"/>
       <c r="S90" s="4"/>
-      <c r="T90" s="11">
+      <c r="T90" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U90" s="15">
+      <c r="W90" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6631,20 +6631,20 @@
       </c>
       <c r="Q91" s="4"/>
       <c r="S91" s="4"/>
-      <c r="T91" s="11">
+      <c r="T91" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V91" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U91" s="15">
+      <c r="W91" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6691,20 +6691,20 @@
       </c>
       <c r="Q92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="11">
+      <c r="T92" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U92" s="15">
+      <c r="W92" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6751,20 +6751,20 @@
       </c>
       <c r="Q93" s="4"/>
       <c r="S93" s="4"/>
-      <c r="T93" s="11">
+      <c r="T93" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V93" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U93" s="15">
+      <c r="W93" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W93" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6811,20 +6811,20 @@
       </c>
       <c r="Q94" s="4"/>
       <c r="S94" s="4"/>
-      <c r="T94" s="11">
+      <c r="T94" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U94" s="15">
+      <c r="W94" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V94" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W94" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6871,20 +6871,20 @@
       </c>
       <c r="Q95" s="4"/>
       <c r="S95" s="4"/>
-      <c r="T95" s="11">
+      <c r="T95" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U95" s="15">
+      <c r="W95" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V95" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W95" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6906,22 +6906,22 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="20">
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="17">
         <f>AVERAGE(U86:U95)</f>
         <v>0</v>
       </c>
-      <c r="V96" s="20">
-        <f t="shared" ref="V96" si="20">AVERAGE(V86:V95)</f>
-        <v>0</v>
-      </c>
-      <c r="W96" s="20">
-        <f t="shared" ref="W96" si="21">AVERAGE(W86:W95)</f>
-        <v>0</v>
-      </c>
-      <c r="X96" s="20">
+      <c r="V96" s="17">
+        <f t="shared" ref="V96" si="26">AVERAGE(V86:V95)</f>
+        <v>0</v>
+      </c>
+      <c r="W96" s="17">
+        <f t="shared" ref="W96" si="27">AVERAGE(W86:W95)</f>
+        <v>0</v>
+      </c>
+      <c r="X96" s="17">
         <f>V96+24*U96</f>
         <v>0</v>
       </c>
@@ -6969,20 +6969,20 @@
       </c>
       <c r="Q97" s="4"/>
       <c r="S97" s="4"/>
-      <c r="T97" s="11">
+      <c r="T97" s="8">
         <f>S97-S95</f>
         <v>0</v>
       </c>
-      <c r="U97" s="15">
+      <c r="U97" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V97" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W97" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7029,20 +7029,20 @@
       </c>
       <c r="Q98" s="4"/>
       <c r="S98" s="4"/>
-      <c r="T98" s="11">
+      <c r="T98" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U98" s="15">
+      <c r="W98" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V98" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W98" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7089,20 +7089,20 @@
       </c>
       <c r="Q99" s="4"/>
       <c r="S99" s="4"/>
-      <c r="T99" s="11">
+      <c r="T99" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U99" s="15">
+      <c r="W99" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V99" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W99" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7149,20 +7149,20 @@
       </c>
       <c r="Q100" s="4"/>
       <c r="S100" s="4"/>
-      <c r="T100" s="11">
+      <c r="T100" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U100" s="15">
+      <c r="W100" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V100" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W100" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7209,20 +7209,20 @@
       </c>
       <c r="Q101" s="4"/>
       <c r="S101" s="4"/>
-      <c r="T101" s="11">
+      <c r="T101" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U101" s="15">
+      <c r="W101" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V101" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W101" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7269,20 +7269,20 @@
       </c>
       <c r="Q102" s="4"/>
       <c r="S102" s="4"/>
-      <c r="T102" s="11">
+      <c r="T102" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U102" s="15">
+      <c r="W102" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V102" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W102" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7329,20 +7329,20 @@
       </c>
       <c r="Q103" s="4"/>
       <c r="S103" s="4"/>
-      <c r="T103" s="11">
+      <c r="T103" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U103" s="15">
+      <c r="W103" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V103" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W103" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7389,20 +7389,20 @@
       </c>
       <c r="Q104" s="4"/>
       <c r="S104" s="4"/>
-      <c r="T104" s="11">
+      <c r="T104" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U104" s="15">
+      <c r="W104" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V104" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W104" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7449,20 +7449,20 @@
       </c>
       <c r="Q105" s="4"/>
       <c r="S105" s="4"/>
-      <c r="T105" s="11">
+      <c r="T105" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U105" s="15">
+      <c r="W105" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V105" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W105" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7509,20 +7509,20 @@
       </c>
       <c r="Q106" s="4"/>
       <c r="S106" s="4"/>
-      <c r="T106" s="11">
+      <c r="T106" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U106" s="15">
+      <c r="W106" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V106" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W106" s="19">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7544,22 +7544,22 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="14"/>
-      <c r="U107" s="20">
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="17">
         <f>AVERAGE(U97:U106)</f>
         <v>0</v>
       </c>
-      <c r="V107" s="20">
-        <f t="shared" ref="V107" si="22">AVERAGE(V97:V106)</f>
-        <v>0</v>
-      </c>
-      <c r="W107" s="20">
-        <f t="shared" ref="W107" si="23">AVERAGE(W97:W106)</f>
-        <v>0</v>
-      </c>
-      <c r="X107" s="20">
+      <c r="V107" s="17">
+        <f t="shared" ref="V107" si="28">AVERAGE(V97:V106)</f>
+        <v>0</v>
+      </c>
+      <c r="W107" s="17">
+        <f t="shared" ref="W107" si="29">AVERAGE(W97:W106)</f>
+        <v>0</v>
+      </c>
+      <c r="X107" s="17">
         <f>V107+24*U107</f>
         <v>0</v>
       </c>
@@ -7607,20 +7607,20 @@
       </c>
       <c r="Q108" s="4"/>
       <c r="S108" s="4"/>
-      <c r="T108" s="11">
+      <c r="T108" s="8">
         <f>S108-S106</f>
         <v>0</v>
       </c>
-      <c r="U108" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V108" s="19">
-        <f t="shared" ref="V107:V161" si="24">HOUR(T108)</f>
-        <v>0</v>
-      </c>
-      <c r="W108" s="19">
-        <f t="shared" ref="W107:W161" si="25">MINUTE(T108)</f>
+      <c r="U108" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="16">
+        <f t="shared" ref="V108:V161" si="30">HOUR(T108)</f>
+        <v>0</v>
+      </c>
+      <c r="W108" s="16">
+        <f t="shared" ref="W108:W161" si="31">MINUTE(T108)</f>
         <v>0</v>
       </c>
     </row>
@@ -7667,20 +7667,20 @@
       </c>
       <c r="Q109" s="4"/>
       <c r="S109" s="4"/>
-      <c r="T109" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V109" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W109" s="19">
-        <f t="shared" si="25"/>
+      <c r="T109" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -7727,20 +7727,20 @@
       </c>
       <c r="Q110" s="4"/>
       <c r="S110" s="4"/>
-      <c r="T110" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V110" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W110" s="19">
-        <f t="shared" si="25"/>
+      <c r="T110" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -7787,20 +7787,20 @@
       </c>
       <c r="Q111" s="4"/>
       <c r="S111" s="4"/>
-      <c r="T111" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V111" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W111" s="19">
-        <f t="shared" si="25"/>
+      <c r="T111" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -7847,20 +7847,20 @@
       </c>
       <c r="Q112" s="4"/>
       <c r="S112" s="4"/>
-      <c r="T112" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V112" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="19">
-        <f t="shared" si="25"/>
+      <c r="T112" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V112" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -7907,20 +7907,20 @@
       </c>
       <c r="Q113" s="4"/>
       <c r="S113" s="4"/>
-      <c r="T113" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U113" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V113" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W113" s="19">
-        <f t="shared" si="25"/>
+      <c r="T113" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -7967,20 +7967,20 @@
       </c>
       <c r="Q114" s="4"/>
       <c r="S114" s="4"/>
-      <c r="T114" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V114" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W114" s="19">
-        <f t="shared" si="25"/>
+      <c r="T114" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8027,20 +8027,20 @@
       </c>
       <c r="Q115" s="4"/>
       <c r="S115" s="4"/>
-      <c r="T115" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U115" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V115" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="19">
-        <f t="shared" si="25"/>
+      <c r="T115" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8087,20 +8087,20 @@
       </c>
       <c r="Q116" s="4"/>
       <c r="S116" s="4"/>
-      <c r="T116" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="19">
-        <f t="shared" si="25"/>
+      <c r="T116" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8147,20 +8147,20 @@
       </c>
       <c r="Q117" s="4"/>
       <c r="S117" s="4"/>
-      <c r="T117" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V117" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W117" s="19">
-        <f t="shared" si="25"/>
+      <c r="T117" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8182,22 +8182,22 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="13"/>
-      <c r="T118" s="14"/>
-      <c r="U118" s="20">
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="17">
         <f>AVERAGE(U108:U117)</f>
         <v>0</v>
       </c>
-      <c r="V118" s="20">
-        <f t="shared" ref="V118" si="26">AVERAGE(V108:V117)</f>
-        <v>0</v>
-      </c>
-      <c r="W118" s="20">
-        <f t="shared" ref="W118" si="27">AVERAGE(W108:W117)</f>
-        <v>0</v>
-      </c>
-      <c r="X118" s="20">
+      <c r="V118" s="17">
+        <f t="shared" ref="V118" si="32">AVERAGE(V108:V117)</f>
+        <v>0</v>
+      </c>
+      <c r="W118" s="17">
+        <f t="shared" ref="W118" si="33">AVERAGE(W108:W117)</f>
+        <v>0</v>
+      </c>
+      <c r="X118" s="17">
         <f>V118+24*U118</f>
         <v>0</v>
       </c>
@@ -8245,20 +8245,20 @@
       </c>
       <c r="Q119" s="4"/>
       <c r="S119" s="4"/>
-      <c r="T119" s="11">
+      <c r="T119" s="8">
         <f>S119-S117</f>
         <v>0</v>
       </c>
-      <c r="U119" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V119" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W119" s="19">
-        <f t="shared" si="25"/>
+      <c r="U119" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V119" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8305,20 +8305,20 @@
       </c>
       <c r="Q120" s="4"/>
       <c r="S120" s="4"/>
-      <c r="T120" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V120" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W120" s="19">
-        <f t="shared" si="25"/>
+      <c r="T120" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8365,20 +8365,20 @@
       </c>
       <c r="Q121" s="4"/>
       <c r="S121" s="4"/>
-      <c r="T121" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V121" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W121" s="19">
-        <f t="shared" si="25"/>
+      <c r="T121" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V121" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8425,20 +8425,20 @@
       </c>
       <c r="Q122" s="4"/>
       <c r="S122" s="4"/>
-      <c r="T122" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U122" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V122" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W122" s="19">
-        <f t="shared" si="25"/>
+      <c r="T122" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V122" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8485,20 +8485,20 @@
       </c>
       <c r="Q123" s="4"/>
       <c r="S123" s="4"/>
-      <c r="T123" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U123" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V123" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W123" s="19">
-        <f t="shared" si="25"/>
+      <c r="T123" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V123" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8545,20 +8545,20 @@
       </c>
       <c r="Q124" s="4"/>
       <c r="S124" s="4"/>
-      <c r="T124" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V124" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W124" s="19">
-        <f t="shared" si="25"/>
+      <c r="T124" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V124" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8605,20 +8605,20 @@
       </c>
       <c r="Q125" s="4"/>
       <c r="S125" s="4"/>
-      <c r="T125" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U125" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V125" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W125" s="19">
-        <f t="shared" si="25"/>
+      <c r="T125" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V125" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8665,20 +8665,20 @@
       </c>
       <c r="Q126" s="4"/>
       <c r="S126" s="4"/>
-      <c r="T126" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V126" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W126" s="19">
-        <f t="shared" si="25"/>
+      <c r="T126" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V126" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8725,20 +8725,20 @@
       </c>
       <c r="Q127" s="4"/>
       <c r="S127" s="4"/>
-      <c r="T127" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V127" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W127" s="19">
-        <f t="shared" si="25"/>
+      <c r="T127" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V127" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8785,20 +8785,20 @@
       </c>
       <c r="Q128" s="4"/>
       <c r="S128" s="4"/>
-      <c r="T128" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V128" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W128" s="19">
-        <f t="shared" si="25"/>
+      <c r="T128" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V128" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8820,22 +8820,22 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="13"/>
-      <c r="T129" s="14"/>
-      <c r="U129" s="20">
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+      <c r="T129" s="11"/>
+      <c r="U129" s="17">
         <f>AVERAGE(U119:U128)</f>
         <v>0</v>
       </c>
-      <c r="V129" s="20">
-        <f t="shared" ref="V129" si="28">AVERAGE(V119:V128)</f>
-        <v>0</v>
-      </c>
-      <c r="W129" s="20">
-        <f t="shared" ref="W129" si="29">AVERAGE(W119:W128)</f>
-        <v>0</v>
-      </c>
-      <c r="X129" s="20">
+      <c r="V129" s="17">
+        <f t="shared" ref="V129" si="34">AVERAGE(V119:V128)</f>
+        <v>0</v>
+      </c>
+      <c r="W129" s="17">
+        <f t="shared" ref="W129" si="35">AVERAGE(W119:W128)</f>
+        <v>0</v>
+      </c>
+      <c r="X129" s="17">
         <f>V129+24*U129</f>
         <v>0</v>
       </c>
@@ -8883,20 +8883,20 @@
       </c>
       <c r="Q130" s="4"/>
       <c r="S130" s="4"/>
-      <c r="T130" s="11">
+      <c r="T130" s="8">
         <f>S130-S128</f>
         <v>0</v>
       </c>
-      <c r="U130" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V130" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W130" s="19">
-        <f t="shared" si="25"/>
+      <c r="U130" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V130" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -8943,20 +8943,20 @@
       </c>
       <c r="Q131" s="4"/>
       <c r="S131" s="4"/>
-      <c r="T131" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V131" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W131" s="19">
-        <f t="shared" si="25"/>
+      <c r="T131" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V131" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W131" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -9003,20 +9003,20 @@
       </c>
       <c r="Q132" s="4"/>
       <c r="S132" s="4"/>
-      <c r="T132" s="11">
-        <f t="shared" ref="T132:T161" si="30">S132-S131</f>
-        <v>0</v>
-      </c>
-      <c r="U132" s="15">
-        <f t="shared" ref="U132:U161" si="31">DAY(T132)</f>
-        <v>0</v>
-      </c>
-      <c r="V132" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W132" s="19">
-        <f t="shared" si="25"/>
+      <c r="T132" s="8">
+        <f t="shared" ref="T132:T161" si="36">S132-S131</f>
+        <v>0</v>
+      </c>
+      <c r="U132" s="12">
+        <f t="shared" ref="U132:U161" si="37">DAY(T132)</f>
+        <v>0</v>
+      </c>
+      <c r="V132" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W132" s="16">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,20 +9063,20 @@
       </c>
       <c r="Q133" s="4"/>
       <c r="S133" s="4"/>
-      <c r="T133" s="11">
+      <c r="T133" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V133" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U133" s="15">
+      <c r="W133" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V133" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W133" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9123,20 +9123,20 @@
       </c>
       <c r="Q134" s="4"/>
       <c r="S134" s="4"/>
-      <c r="T134" s="11">
+      <c r="T134" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V134" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U134" s="15">
+      <c r="W134" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V134" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W134" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9183,20 +9183,20 @@
       </c>
       <c r="Q135" s="4"/>
       <c r="S135" s="4"/>
-      <c r="T135" s="11">
+      <c r="T135" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U135" s="15">
+      <c r="W135" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V135" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W135" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9243,20 +9243,20 @@
       </c>
       <c r="Q136" s="4"/>
       <c r="S136" s="4"/>
-      <c r="T136" s="11">
+      <c r="T136" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V136" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U136" s="15">
+      <c r="W136" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V136" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W136" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9303,20 +9303,20 @@
       </c>
       <c r="Q137" s="4"/>
       <c r="S137" s="4"/>
-      <c r="T137" s="11">
+      <c r="T137" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V137" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U137" s="15">
+      <c r="W137" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V137" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W137" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9363,20 +9363,20 @@
       </c>
       <c r="Q138" s="4"/>
       <c r="S138" s="4"/>
-      <c r="T138" s="11">
+      <c r="T138" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V138" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U138" s="15">
+      <c r="W138" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V138" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W138" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9423,20 +9423,20 @@
       </c>
       <c r="Q139" s="4"/>
       <c r="S139" s="4"/>
-      <c r="T139" s="11">
+      <c r="T139" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V139" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U139" s="15">
+      <c r="W139" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V139" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W139" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9458,22 +9458,22 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
-      <c r="R140" s="13"/>
-      <c r="S140" s="13"/>
-      <c r="T140" s="14"/>
-      <c r="U140" s="20">
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="11"/>
+      <c r="U140" s="17">
         <f>AVERAGE(U130:U139)</f>
         <v>0</v>
       </c>
-      <c r="V140" s="20">
-        <f t="shared" ref="V140" si="32">AVERAGE(V130:V139)</f>
-        <v>0</v>
-      </c>
-      <c r="W140" s="20">
-        <f t="shared" ref="W140" si="33">AVERAGE(W130:W139)</f>
-        <v>0</v>
-      </c>
-      <c r="X140" s="20">
+      <c r="V140" s="17">
+        <f t="shared" ref="V140" si="38">AVERAGE(V130:V139)</f>
+        <v>0</v>
+      </c>
+      <c r="W140" s="17">
+        <f t="shared" ref="W140" si="39">AVERAGE(W130:W139)</f>
+        <v>0</v>
+      </c>
+      <c r="X140" s="17">
         <f>V140+24*U140</f>
         <v>0</v>
       </c>
@@ -9521,20 +9521,20 @@
       </c>
       <c r="Q141" s="4"/>
       <c r="S141" s="4"/>
-      <c r="T141" s="11">
+      <c r="T141" s="8">
         <f>S141-S139</f>
         <v>0</v>
       </c>
-      <c r="U141" s="15">
+      <c r="U141" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V141" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V141" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W141" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9581,20 +9581,20 @@
       </c>
       <c r="Q142" s="4"/>
       <c r="S142" s="4"/>
-      <c r="T142" s="11">
+      <c r="T142" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V142" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U142" s="15">
+      <c r="W142" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V142" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W142" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="Q143" s="4"/>
       <c r="S143" s="4"/>
-      <c r="T143" s="11">
+      <c r="T143" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U143" s="15">
+      <c r="W143" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V143" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W143" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9701,20 +9701,20 @@
       </c>
       <c r="Q144" s="4"/>
       <c r="S144" s="4"/>
-      <c r="T144" s="11">
+      <c r="T144" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V144" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U144" s="15">
+      <c r="W144" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V144" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W144" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9761,20 +9761,20 @@
       </c>
       <c r="Q145" s="4"/>
       <c r="S145" s="4"/>
-      <c r="T145" s="11">
+      <c r="T145" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V145" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U145" s="15">
+      <c r="W145" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V145" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W145" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9821,20 +9821,20 @@
       </c>
       <c r="Q146" s="4"/>
       <c r="S146" s="4"/>
-      <c r="T146" s="11">
+      <c r="T146" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V146" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U146" s="15">
+      <c r="W146" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V146" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W146" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9881,20 +9881,20 @@
       </c>
       <c r="Q147" s="4"/>
       <c r="S147" s="4"/>
-      <c r="T147" s="11">
+      <c r="T147" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V147" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U147" s="15">
+      <c r="W147" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V147" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W147" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -9941,20 +9941,20 @@
       </c>
       <c r="Q148" s="4"/>
       <c r="S148" s="4"/>
-      <c r="T148" s="11">
+      <c r="T148" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V148" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U148" s="15">
+      <c r="W148" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V148" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W148" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="Q149" s="4"/>
       <c r="S149" s="4"/>
-      <c r="T149" s="11">
+      <c r="T149" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V149" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U149" s="15">
+      <c r="W149" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V149" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W149" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10061,20 +10061,20 @@
       </c>
       <c r="Q150" s="4"/>
       <c r="S150" s="4"/>
-      <c r="T150" s="11">
+      <c r="T150" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V150" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U150" s="15">
+      <c r="W150" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V150" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W150" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10096,22 +10096,22 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
-      <c r="R151" s="13"/>
-      <c r="S151" s="13"/>
-      <c r="T151" s="14"/>
-      <c r="U151" s="20">
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="11"/>
+      <c r="U151" s="17">
         <f>AVERAGE(U141:U150)</f>
         <v>0</v>
       </c>
-      <c r="V151" s="20">
-        <f t="shared" ref="V151" si="34">AVERAGE(V141:V150)</f>
-        <v>0</v>
-      </c>
-      <c r="W151" s="20">
-        <f t="shared" ref="W151" si="35">AVERAGE(W141:W150)</f>
-        <v>0</v>
-      </c>
-      <c r="X151" s="20">
+      <c r="V151" s="17">
+        <f t="shared" ref="V151" si="40">AVERAGE(V141:V150)</f>
+        <v>0</v>
+      </c>
+      <c r="W151" s="17">
+        <f t="shared" ref="W151" si="41">AVERAGE(W141:W150)</f>
+        <v>0</v>
+      </c>
+      <c r="X151" s="17">
         <f>V151+24*U151</f>
         <v>0</v>
       </c>
@@ -10159,20 +10159,20 @@
       </c>
       <c r="Q152" s="4"/>
       <c r="S152" s="4"/>
-      <c r="T152" s="11">
+      <c r="T152" s="8">
         <f>S152-S150</f>
         <v>0</v>
       </c>
-      <c r="U152" s="15">
+      <c r="U152" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V152" s="16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W152" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V152" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W152" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10219,20 +10219,20 @@
       </c>
       <c r="Q153" s="4"/>
       <c r="S153" s="4"/>
-      <c r="T153" s="11">
+      <c r="T153" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U153" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V153" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U153" s="15">
+      <c r="W153" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V153" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W153" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10279,20 +10279,20 @@
       </c>
       <c r="Q154" s="4"/>
       <c r="S154" s="4"/>
-      <c r="T154" s="11">
+      <c r="T154" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U154" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V154" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U154" s="15">
+      <c r="W154" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V154" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W154" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10339,20 +10339,20 @@
       </c>
       <c r="Q155" s="4"/>
       <c r="S155" s="4"/>
-      <c r="T155" s="11">
+      <c r="T155" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U155" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V155" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U155" s="15">
+      <c r="W155" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V155" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W155" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10399,20 +10399,20 @@
       </c>
       <c r="Q156" s="4"/>
       <c r="S156" s="4"/>
-      <c r="T156" s="11">
+      <c r="T156" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U156" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V156" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U156" s="15">
+      <c r="W156" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V156" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W156" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10459,20 +10459,20 @@
       </c>
       <c r="Q157" s="4"/>
       <c r="S157" s="4"/>
-      <c r="T157" s="11">
+      <c r="T157" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V157" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U157" s="15">
+      <c r="W157" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V157" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W157" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10519,20 +10519,20 @@
       </c>
       <c r="Q158" s="4"/>
       <c r="S158" s="4"/>
-      <c r="T158" s="11">
+      <c r="T158" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V158" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U158" s="15">
+      <c r="W158" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V158" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10579,20 +10579,20 @@
       </c>
       <c r="Q159" s="4"/>
       <c r="S159" s="4"/>
-      <c r="T159" s="11">
+      <c r="T159" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V159" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U159" s="15">
+      <c r="W159" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V159" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W159" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10639,20 +10639,20 @@
       </c>
       <c r="Q160" s="4"/>
       <c r="S160" s="4"/>
-      <c r="T160" s="11">
+      <c r="T160" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V160" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U160" s="15">
+      <c r="W160" s="16">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V160" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W160" s="19">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10699,133 +10699,134 @@
       </c>
       <c r="Q161" s="4"/>
       <c r="S161" s="4"/>
-      <c r="T161" s="11">
+      <c r="T161" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V161" s="16">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U161" s="15">
+      <c r="W161" s="16">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V161" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W161" s="19">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="162" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U162" s="15"/>
-      <c r="V162" s="15"/>
-      <c r="W162" s="15"/>
-      <c r="X162" s="15"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="12"/>
     </row>
     <row r="163" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U163" s="15"/>
-      <c r="V163" s="15"/>
-      <c r="W163" s="15"/>
-      <c r="X163" s="15"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
     </row>
     <row r="164" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U164" s="15"/>
-      <c r="V164" s="15"/>
-      <c r="W164" s="15"/>
-      <c r="X164" s="15"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="12"/>
+      <c r="W164" s="12"/>
+      <c r="X164" s="12"/>
     </row>
     <row r="165" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U165" s="15"/>
-      <c r="V165" s="15"/>
-      <c r="W165" s="15"/>
-      <c r="X165" s="15"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="12"/>
     </row>
     <row r="166" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U166" s="15"/>
-      <c r="V166" s="15"/>
-      <c r="W166" s="15"/>
-      <c r="X166" s="15"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
     </row>
     <row r="167" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U167" s="15"/>
-      <c r="V167" s="19"/>
-      <c r="W167" s="15"/>
-      <c r="X167" s="15"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="16"/>
+      <c r="W167" s="12"/>
+      <c r="X167" s="12"/>
     </row>
     <row r="168" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U168" s="15"/>
-      <c r="V168" s="15"/>
-      <c r="W168" s="15"/>
-      <c r="X168" s="15"/>
+      <c r="U168" s="12"/>
+      <c r="V168" s="12"/>
+      <c r="W168" s="12"/>
+      <c r="X168" s="12"/>
     </row>
     <row r="169" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U169" s="15"/>
-      <c r="V169" s="19"/>
-      <c r="W169" s="15"/>
-      <c r="X169" s="15"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="16"/>
+      <c r="W169" s="12"/>
+      <c r="X169" s="12"/>
     </row>
     <row r="170" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U170" s="15" t="s">
+      <c r="U170" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="V170" s="15">
+      <c r="V170" s="12">
         <v>25</v>
       </c>
-      <c r="W170" s="15"/>
-      <c r="X170" s="15"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="12"/>
     </row>
     <row r="171" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U171" s="15"/>
-      <c r="V171" s="15" t="s">
+      <c r="U171" s="12"/>
+      <c r="V171" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="W171" s="15" t="s">
+      <c r="W171" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="X171" s="15"/>
+      <c r="X171" s="12"/>
     </row>
     <row r="172" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U172" s="15" t="s">
+      <c r="U172" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="V172" s="16">
+      <c r="V172" s="13">
         <v>11</v>
       </c>
-      <c r="W172" s="16">
+      <c r="W172" s="13">
         <f>$V$170*$V172</f>
         <v>275</v>
       </c>
-      <c r="X172" s="15"/>
+      <c r="X172" s="12"/>
     </row>
     <row r="173" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U173" s="15" t="s">
+      <c r="U173" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="V173" s="16">
+      <c r="V173" s="13">
         <v>5</v>
       </c>
-      <c r="W173" s="16">
+      <c r="W173" s="13">
         <f>$V$170*$V173</f>
         <v>125</v>
       </c>
-      <c r="X173" s="15"/>
+      <c r="X173" s="12"/>
     </row>
     <row r="174" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U174" s="15" t="s">
+      <c r="U174" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="V174" s="23">
+      <c r="V174" s="20">
         <v>6</v>
       </c>
-      <c r="W174" s="16">
+      <c r="W174" s="13">
         <f>$V$170*$V174</f>
         <v>150</v>
       </c>
-      <c r="X174" s="15"/>
+      <c r="X174" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A41:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
